--- a/va_facility_data_2025-02-20/Jersey City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jersey%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jersey City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jersey%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R93e0e92779a64c358ed0b3f0e60c6854"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8db35bdde7f1424bb8d916474e142dd6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0c4575a9990145e088f1657748822301"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2d4bd150dc9a43bfa5f7eb5c84242a47"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R33d06c43add24affbd0e2024392d33bb"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra5707aec8d9047aab517b12e4389d751"/>
   </x:sheets>
 </x:workbook>
 </file>
